--- a/docs/画面項目定義書/mo_snapshot_create.xlsx
+++ b/docs/画面項目定義書/mo_snapshot_create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76592962-2D83-4F0B-983D-3B83F8BE45B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61866627-13B9-4B60-8433-9EFA2B3984E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,29 +79,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザーオブジェクトより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>作成済み仮想マシンを取得し、一覧で表示</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイズ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>ページタイトル</t>
   </si>
   <si>
@@ -160,49 +137,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力覧タイトル「スナップショット名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「スナップショット名」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プルダウンメニュータイトル「対象の仮想マシン」</t>
-    <rPh sb="14" eb="16">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プルダウンメニュー「バックアップ対象の仮想マシン」</t>
-    <rPh sb="16" eb="18">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>スナップショット名</t>
     <rPh sb="8" eb="9">
       <t>メイ</t>
@@ -217,7 +151,63 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>対象の仮想マシン</t>
+    <t>ユーザーエンティティより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「スナップショット名」</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「スナップショット名」</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成済み仮想マシンを
+仮想マシンエンティティから取得し、
+一覧で表示</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>対象仮想マシン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プルダウンメニュータイトル「対象仮想マシン」</t>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プルダウンメニュー「バックアップ対象仮想マシン」</t>
+    <rPh sb="16" eb="18">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カソウ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -523,7 +513,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,12 +597,15 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1066,7 +1059,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1118,10 +1111,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1131,10 +1124,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1180,14 +1173,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="29"/>
     </row>
@@ -1196,18 +1189,18 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
@@ -1215,18 +1208,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
@@ -1234,14 +1227,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -1251,14 +1244,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="28" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
@@ -1268,33 +1261,33 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="27"/>
-      <c r="E14" s="35" t="s">
-        <v>32</v>
+      <c r="E14" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="24">
+    <row r="15" spans="1:7" ht="39">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13">

--- a/docs/画面項目定義書/mo_snapshot_create.xlsx
+++ b/docs/画面項目定義書/mo_snapshot_create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61866627-13B9-4B60-8433-9EFA2B3984E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF46DB-9382-41C5-92F3-58EDA0F31992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>日本工学院</t>
   </si>
@@ -144,17 +144,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>例：snapshot-new</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーエンティティより</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>テキストボックスタイトル「スナップショット名」</t>
     <rPh sb="21" eb="22">
       <t>メイ</t>
@@ -169,7 +158,38 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>作成済み仮想マシンを
+    <t>対象仮想マシン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プルダウンメニュータイトル「対象仮想マシン」</t>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>プルダウンメニュー「バックアップ対象仮想マシン」</t>
+    <rPh sb="16" eb="18">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成済み仮想マシンを、
 仮想マシンエンティティから取得し、
 一覧で表示</t>
     <rPh sb="0" eb="3">
@@ -178,35 +198,11 @@
     <rPh sb="4" eb="6">
       <t>カソウ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="30" eb="32">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="33" eb="35">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>対象仮想マシン</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プルダウンメニュータイトル「対象仮想マシン」</t>
-    <rPh sb="14" eb="16">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>プルダウンメニュー「バックアップ対象仮想マシン」</t>
-    <rPh sb="16" eb="18">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カソウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -600,13 +596,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1059,7 +1055,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1111,10 +1107,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1124,10 +1120,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>13</v>
@@ -1244,15 +1240,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>25</v>
-      </c>
+      <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
     </row>
@@ -1261,14 +1255,14 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -1278,16 +1272,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13">
